--- a/docs/powerup-chance-formula.xlsx
+++ b/docs/powerup-chance-formula.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E85909-C273-4691-B0DF-364B30624741}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8D641-07ED-448B-B02B-E9AD1F831B9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29205" yWindow="3825" windowWidth="14895" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -365,15 +365,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,184 +384,184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <f>A2*$E$2</f>
-        <v>9.0200000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>9.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B19" si="0">A3*$E$2</f>
-        <v>0.1804</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>0.27060000000000001</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G4">
         <f>LOG(50,5)</f>
         <v>2.4306765580733933</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>0.36080000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>0.45100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>0.54120000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0.63139999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0.72160000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0.81180000000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0.99219999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>1.1726000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>1.2627999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>1.353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>1.4432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>1.5334000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>1.6236000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B3:B20" si="1">A20*0.1</f>
+        <f t="shared" ref="B20" si="1">A20*0.1</f>
         <v>1.9000000000000001</v>
       </c>
     </row>
